--- a/mbs-perturbation/greedy/svm/greedy-svm-default-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05825242718446601</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8528138528138528</v>
+        <v>0.8932178932178932</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9004329004329004</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6507246376811593</v>
+        <v>0.7420289855072464</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9567099567099567</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.9913419913419913</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.206</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1116504854368932</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6652098626011669</v>
+        <v>0.8967463454419976</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/greedy-svm-default-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8932178932178932</v>
+        <v>0.5144230769230769</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9004329004329004</v>
+        <v>0.8413461538461539</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7420289855072464</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9567099567099567</v>
+        <v>0.123798076923077</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9913419913419913</v>
+        <v>0.3737980769230769</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01212121212121212</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8967463454419976</v>
+        <v>0.545673076923077</v>
       </c>
     </row>
   </sheetData>
